--- a/scripts/data/state_actions_2023.xlsx
+++ b/scripts/data/state_actions_2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,6 +529,1896 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6.120849132537842</v>
+      </c>
+      <c r="C7" t="n">
+        <v>287031.3125</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>_20221223154541673176.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6.062850475311279</v>
+      </c>
+      <c r="C8" t="n">
+        <v>290871.75</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>_20221223154702860076.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4.39573860168457</v>
+      </c>
+      <c r="C9" t="n">
+        <v>256668.296875</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>_20221223155338475006.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.232241153717041</v>
+      </c>
+      <c r="C10" t="n">
+        <v>273037.65625</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>_20221223155508258347.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.294189453125</v>
+      </c>
+      <c r="C11" t="n">
+        <v>265016.65625</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>_20221223155730767875.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4.937151432037354</v>
+      </c>
+      <c r="C12" t="n">
+        <v>278499.1875</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>_20221223155802607858.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3.349993467330933</v>
+      </c>
+      <c r="C13" t="n">
+        <v>283863.6875</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>_20221223155905596976.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7.890680313110352</v>
+      </c>
+      <c r="C14" t="n">
+        <v>276751.34375</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>_20221223155940599328.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4.124468803405762</v>
+      </c>
+      <c r="C15" t="n">
+        <v>299824.21875</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>_20221227122536818379.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>7.344720363616943</v>
+      </c>
+      <c r="C16" t="n">
+        <v>265626.6875</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>_20221227122927106008.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7.135273933410645</v>
+      </c>
+      <c r="C17" t="n">
+        <v>299689.8125</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>_20221227123209898142.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>7.53695011138916</v>
+      </c>
+      <c r="C18" t="n">
+        <v>252969.28125</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>_20221227123230923149.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>5.565274715423584</v>
+      </c>
+      <c r="C19" t="n">
+        <v>291524.65625</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>_20221227124404802531.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>7.984680652618408</v>
+      </c>
+      <c r="C20" t="n">
+        <v>266477.21875</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>_20221227124414520811.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>6.656234264373779</v>
+      </c>
+      <c r="C21" t="n">
+        <v>251520.09375</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>_20221227125106716039.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>5.398633480072021</v>
+      </c>
+      <c r="C22" t="n">
+        <v>274767.125</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>_20221227125243681395.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>3.961721420288086</v>
+      </c>
+      <c r="C23" t="n">
+        <v>269903.46875</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>_20221227125328755648.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>3.832649230957031</v>
+      </c>
+      <c r="C24" t="n">
+        <v>253469.46875</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>_20221227130239222156.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>5.257661819458008</v>
+      </c>
+      <c r="C25" t="n">
+        <v>273187.875</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>_20221227130403570257.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>5.314652442932129</v>
+      </c>
+      <c r="C26" t="n">
+        <v>275138.0625</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>_20221227130524832950.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>6.427170276641846</v>
+      </c>
+      <c r="C27" t="n">
+        <v>269485.03125</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>_20221227130616830534.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2.538580656051636</v>
+      </c>
+      <c r="C28" t="n">
+        <v>292873.78125</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>_20221227200641255718.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2.579436063766479</v>
+      </c>
+      <c r="C29" t="n">
+        <v>287778.625</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>_20221227201947223010.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2.678092956542969</v>
+      </c>
+      <c r="C30" t="n">
+        <v>271311.28125</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>_20221227202124230199.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>5.772228240966797</v>
+      </c>
+      <c r="C31" t="n">
+        <v>279115.625</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>_20221227202226297306.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>3.25059700012207</v>
+      </c>
+      <c r="C32" t="n">
+        <v>299852.9375</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>_20221227202340747926.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>3.053013801574707</v>
+      </c>
+      <c r="C33" t="n">
+        <v>266803.21875</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>_20221227202632618924.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>6.33017110824585</v>
+      </c>
+      <c r="C34" t="n">
+        <v>296975.21875</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>_20221227202747187543.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>3.968812942504883</v>
+      </c>
+      <c r="C35" t="n">
+        <v>250615.21875</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>_20221227203031951512.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2.130662202835083</v>
+      </c>
+      <c r="C36" t="n">
+        <v>265731.9375</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>_20221227203057064262.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>7.204814434051514</v>
+      </c>
+      <c r="C37" t="n">
+        <v>273218.34375</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>_20221227203155303312.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>5.861679553985596</v>
+      </c>
+      <c r="C38" t="n">
+        <v>264031.25</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>_20221227203156248621.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>4.326786994934082</v>
+      </c>
+      <c r="C39" t="n">
+        <v>255720.5</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>_20221227203158039440.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>6.635674476623535</v>
+      </c>
+      <c r="C40" t="n">
+        <v>287603.78125</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>_20221227203202214516.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>5.514889717102051</v>
+      </c>
+      <c r="C41" t="n">
+        <v>259725.015625</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>_20221227203216009236.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>2.65546727180481</v>
+      </c>
+      <c r="C42" t="n">
+        <v>261310</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>_20221227203217932316.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>5.250960350036621</v>
+      </c>
+      <c r="C43" t="n">
+        <v>293219.15625</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>_20221227203218929058.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>2.327331781387329</v>
+      </c>
+      <c r="C44" t="n">
+        <v>267250.71875</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>_20221227203219949730.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>6.397959232330322</v>
+      </c>
+      <c r="C45" t="n">
+        <v>250843.84375</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>_20221227203220932599.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>2.016047477722168</v>
+      </c>
+      <c r="C46" t="n">
+        <v>287193.9375</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>_20221227203221942285.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>2.734255790710449</v>
+      </c>
+      <c r="C47" t="n">
+        <v>272995.4375</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>_20221227203223010653.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>7.594192981719971</v>
+      </c>
+      <c r="C48" t="n">
+        <v>284946.34375</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>_20221227203223981997.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>2.022152185440063</v>
+      </c>
+      <c r="C49" t="n">
+        <v>282281.34375</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>_20221227203225618347.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>7.054976940155029</v>
+      </c>
+      <c r="C50" t="n">
+        <v>290254.15625</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>_20221227203228020909.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>5.346480846405029</v>
+      </c>
+      <c r="C51" t="n">
+        <v>267247.65625</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>_20221227203230488734.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>4.661088943481445</v>
+      </c>
+      <c r="C52" t="n">
+        <v>268473.5625</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>_20221227203231666074.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2.983946323394775</v>
+      </c>
+      <c r="C53" t="n">
+        <v>296647.875</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>_20221227203232290657.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>5.944968223571777</v>
+      </c>
+      <c r="C54" t="n">
+        <v>266065.625</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>_20221227203232906460.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>6.287310600280762</v>
+      </c>
+      <c r="C55" t="n">
+        <v>254607.71875</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>_20221227203233508656.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>6.18082332611084</v>
+      </c>
+      <c r="C56" t="n">
+        <v>259920.96875</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>_20221227203234123200.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>7.46198034286499</v>
+      </c>
+      <c r="C57" t="n">
+        <v>283383.3125</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>_20221227203235208171.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>4.810662269592285</v>
+      </c>
+      <c r="C58" t="n">
+        <v>295899.40625</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>_20221227203236195365.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>3.827261447906494</v>
+      </c>
+      <c r="C59" t="n">
+        <v>252562.265625</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>_20221227203237862155.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>7.095269680023193</v>
+      </c>
+      <c r="C60" t="n">
+        <v>259252.046875</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>_20221227203241940128.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>5.511221408843994</v>
+      </c>
+      <c r="C61" t="n">
+        <v>276728.125</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>_20221227203255613519.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>3.59960675239563</v>
+      </c>
+      <c r="C62" t="n">
+        <v>293756.625</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>_20221227203422059539.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>2.116528749465942</v>
+      </c>
+      <c r="C63" t="n">
+        <v>254841.734375</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>_20221227203423113023.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>2.046104431152344</v>
+      </c>
+      <c r="C64" t="n">
+        <v>274674</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>_20221227203425024244.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>4.878010272979736</v>
+      </c>
+      <c r="C65" t="n">
+        <v>281553.34375</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>_20221227203427849506.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>7.237214088439941</v>
+      </c>
+      <c r="C66" t="n">
+        <v>289842.5625</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>_20221227203430629269.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>2.918190956115723</v>
+      </c>
+      <c r="C67" t="n">
+        <v>287906.375</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>_20221227203431806501.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>5.781789302825928</v>
+      </c>
+      <c r="C68" t="n">
+        <v>250098.453125</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>_20221227203432772127.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>4.645810127258301</v>
+      </c>
+      <c r="C69" t="n">
+        <v>252633.484375</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>_20221227203434450274.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>4.99400520324707</v>
+      </c>
+      <c r="C70" t="n">
+        <v>260405.625</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>_20221227203439391694.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>3.145231962203979</v>
+      </c>
+      <c r="C71" t="n">
+        <v>293608</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>_20221227203458387715.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>7.20285177230835</v>
+      </c>
+      <c r="C72" t="n">
+        <v>279350</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>_20221227203500436876.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>7.816587924957275</v>
+      </c>
+      <c r="C73" t="n">
+        <v>268138.65625</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>_20221227203503423136.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>2.245766639709473</v>
+      </c>
+      <c r="C74" t="n">
+        <v>262269.59375</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>_20221227203508109142.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>3.65898585319519</v>
+      </c>
+      <c r="C75" t="n">
+        <v>282083.125</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>_20221227203523288493.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>5.080866813659668</v>
+      </c>
+      <c r="C76" t="n">
+        <v>250796.4375</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>_20221227203642835908.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>2.973398208618164</v>
+      </c>
+      <c r="C77" t="n">
+        <v>289861.5</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>_20221227203647084294.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>5.796317100524902</v>
+      </c>
+      <c r="C78" t="n">
+        <v>262198.59375</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>_20221227203648201114.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>3.081501722335815</v>
+      </c>
+      <c r="C79" t="n">
+        <v>290284.71875</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>_20221227203649951020.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>3.958015203475952</v>
+      </c>
+      <c r="C80" t="n">
+        <v>268992.28125</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>_20221227203653966839.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>6.24752140045166</v>
+      </c>
+      <c r="C81" t="n">
+        <v>283976.8125</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>_20221227203706755682.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>7.892578601837158</v>
+      </c>
+      <c r="C82" t="n">
+        <v>261704.515625</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>_20221227203708577562.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>4.919727325439453</v>
+      </c>
+      <c r="C83" t="n">
+        <v>287514.5</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>_20221227203709753711.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>3.379388332366943</v>
+      </c>
+      <c r="C84" t="n">
+        <v>287243.90625</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>_20221227203712240611.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>2.639707803726196</v>
+      </c>
+      <c r="C85" t="n">
+        <v>296870.4375</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>_20221227203723736609.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>3.142586469650269</v>
+      </c>
+      <c r="C86" t="n">
+        <v>282845.25</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>_20221227203823772126.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>6.89843225479126</v>
+      </c>
+      <c r="C87" t="n">
+        <v>253776.71875</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>_20221228125400057185.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>6.432397842407227</v>
+      </c>
+      <c r="C88" t="n">
+        <v>297541.0625</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>_20221228125401049661.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>2.618593692779541</v>
+      </c>
+      <c r="C89" t="n">
+        <v>294710.09375</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>_20221228125402885832.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>7.804502964019775</v>
+      </c>
+      <c r="C90" t="n">
+        <v>261238.6875</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>_20221228125408111020.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>4.61897611618042</v>
+      </c>
+      <c r="C91" t="n">
+        <v>261030.96875</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>_20221228125420958756.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>7.561190128326416</v>
+      </c>
+      <c r="C92" t="n">
+        <v>266455.5</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>_20221228125422401377.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>4.927059650421143</v>
+      </c>
+      <c r="C93" t="n">
+        <v>265122.5</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>_20221228125423423033.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>3.242314338684082</v>
+      </c>
+      <c r="C94" t="n">
+        <v>278394.625</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>_20221228125425497933.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>4.936255931854248</v>
+      </c>
+      <c r="C95" t="n">
+        <v>275377.78125</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>_20221228125429723639.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>6.267877578735352</v>
+      </c>
+      <c r="C96" t="n">
+        <v>282030.625</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>_20221228125433913172.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>5.824044704437256</v>
+      </c>
+      <c r="C97" t="n">
+        <v>278796.53125</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>_20221228125435097662.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>7.428516864776611</v>
+      </c>
+      <c r="C98" t="n">
+        <v>272473.9375</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>_20221228125437235111.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>4.800539016723633</v>
+      </c>
+      <c r="C99" t="n">
+        <v>287264.34375</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>_20221228125439021059.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>6.836182594299316</v>
+      </c>
+      <c r="C100" t="n">
+        <v>293744.46875</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>_20221228125440811913.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>3.962135791778564</v>
+      </c>
+      <c r="C101" t="n">
+        <v>259000.0625</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>_20221228125442583649.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>3.087873697280884</v>
+      </c>
+      <c r="C102" t="n">
+        <v>295496.375</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>_20221228125443729446.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>2.964347124099731</v>
+      </c>
+      <c r="C103" t="n">
+        <v>270159.625</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>_20221228125444720916.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>7.08554744720459</v>
+      </c>
+      <c r="C104" t="n">
+        <v>298646.03125</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>_20221228125446372689.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>5.998629570007324</v>
+      </c>
+      <c r="C105" t="n">
+        <v>298945.65625</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>_20221228125449595197.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>6.329484939575195</v>
+      </c>
+      <c r="C106" t="n">
+        <v>284858</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>_20221228125458258415.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>2.461160659790039</v>
+      </c>
+      <c r="C107" t="n">
+        <v>264479.96875</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>_20221228125459894918.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>5.430698871612549</v>
+      </c>
+      <c r="C108" t="n">
+        <v>293220.3125</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>_20221228125501141766.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>3.947538614273071</v>
+      </c>
+      <c r="C109" t="n">
+        <v>266595.5</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>_20221228125503651904.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>3.083709478378296</v>
+      </c>
+      <c r="C110" t="n">
+        <v>270787.375</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>_20221228125511840970.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>3.452623844146729</v>
+      </c>
+      <c r="C111" t="n">
+        <v>273859.6875</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>_20221228125547088327.obj</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/scripts/data/state_actions_2023.xlsx
+++ b/scripts/data/state_actions_2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3470"/>
+  <dimension ref="A1:D3475"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62881,6 +62881,96 @@
         </is>
       </c>
     </row>
+    <row r="3471">
+      <c r="A3471" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B3471" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3471" t="n">
+        <v>267000</v>
+      </c>
+      <c r="D3471" t="inlineStr">
+        <is>
+          <t>_20230113163831162787.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="3472">
+      <c r="A3472" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B3472" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3472" t="n">
+        <v>256500</v>
+      </c>
+      <c r="D3472" t="inlineStr">
+        <is>
+          <t>_20230113163832968087.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="3473">
+      <c r="A3473" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B3473" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3473" t="n">
+        <v>265500</v>
+      </c>
+      <c r="D3473" t="inlineStr">
+        <is>
+          <t>_20230113164958344721.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="3474">
+      <c r="A3474" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B3474" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3474" t="n">
+        <v>263500</v>
+      </c>
+      <c r="D3474" t="inlineStr">
+        <is>
+          <t>_20230113165000073207.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="3475">
+      <c r="A3475" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B3475" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3475" t="n">
+        <v>279500</v>
+      </c>
+      <c r="D3475" t="inlineStr">
+        <is>
+          <t>_20230113165006629285.obj</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/scripts/data/state_actions_2023.xlsx
+++ b/scripts/data/state_actions_2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3475"/>
+  <dimension ref="A1:D3481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62971,6 +62971,114 @@
         </is>
       </c>
     </row>
+    <row r="3476">
+      <c r="A3476" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B3476" t="n">
+        <v>2.276844024658203</v>
+      </c>
+      <c r="C3476" t="n">
+        <v>1385531.044006348</v>
+      </c>
+      <c r="D3476" t="inlineStr">
+        <is>
+          <t>_20230130_143735_step_0.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="3477">
+      <c r="A3477" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B3477" t="n">
+        <v>2.363754749298096</v>
+      </c>
+      <c r="C3477" t="n">
+        <v>560010.290145874</v>
+      </c>
+      <c r="D3477" t="inlineStr">
+        <is>
+          <t>_20230130_143737_step_1.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="3478">
+      <c r="A3478" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B3478" t="n">
+        <v>4.552170276641846</v>
+      </c>
+      <c r="C3478" t="n">
+        <v>921372.6997375488</v>
+      </c>
+      <c r="D3478" t="inlineStr">
+        <is>
+          <t>_20230130_143741_step_2.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="3479">
+      <c r="A3479" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B3479" t="n">
+        <v>4.585229396820068</v>
+      </c>
+      <c r="C3479" t="n">
+        <v>1134632.110595703</v>
+      </c>
+      <c r="D3479" t="inlineStr">
+        <is>
+          <t>_20230130_143743_step_0.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="3480">
+      <c r="A3480" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B3480" t="n">
+        <v>6.904960632324219</v>
+      </c>
+      <c r="C3480" t="n">
+        <v>1084555.149078369</v>
+      </c>
+      <c r="D3480" t="inlineStr">
+        <is>
+          <t>_20230130_143746_step_1.obj</t>
+        </is>
+      </c>
+    </row>
+    <row r="3481">
+      <c r="A3481" t="inlineStr">
+        <is>
+          <t>Fcad22_ver1.obj</t>
+        </is>
+      </c>
+      <c r="B3481" t="n">
+        <v>7.429870128631592</v>
+      </c>
+      <c r="C3481" t="n">
+        <v>319144.3681716919</v>
+      </c>
+      <c r="D3481" t="inlineStr">
+        <is>
+          <t>_20230130_143757_step_2.obj</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
